--- a/DECISION/미장_양자_분석.xlsx
+++ b/DECISION/미장_양자_분석.xlsx
@@ -49,7 +49,7 @@
     <t>판단</t>
   </si>
   <si>
-    <t>2025-11-27</t>
+    <t>2025-11-28</t>
   </si>
   <si>
     <t>International Business Machines</t>

--- a/DECISION/미장_양자_분석.xlsx
+++ b/DECISION/미장_양자_분석.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
   <si>
     <t>날짜</t>
   </si>
@@ -34,22 +34,37 @@
     <t>5일수익률</t>
   </si>
   <si>
-    <t>점수</t>
-  </si>
-  <si>
-    <t>3일확률</t>
-  </si>
-  <si>
-    <t>5일확률</t>
-  </si>
-  <si>
-    <t>10일확률</t>
+    <t>점수(룰)</t>
+  </si>
+  <si>
+    <t>3일상승확률(%)</t>
+  </si>
+  <si>
+    <t>5일상승확률(%)</t>
+  </si>
+  <si>
+    <t>10일상승확률(%)</t>
+  </si>
+  <si>
+    <t>최종점수</t>
+  </si>
+  <si>
+    <t>예측방식</t>
   </si>
   <si>
     <t>판단</t>
   </si>
   <si>
-    <t>2025-11-28</t>
+    <t>MACRO_SCORE</t>
+  </si>
+  <si>
+    <t>MACRO_SIGNAL</t>
+  </si>
+  <si>
+    <t>2025-11-29</t>
+  </si>
+  <si>
+    <t>D-Wave Quantum Inc.</t>
   </si>
   <si>
     <t>International Business Machines</t>
@@ -61,7 +76,7 @@
     <t>IonQ, Inc.</t>
   </si>
   <si>
-    <t>D-Wave Quantum Inc.</t>
+    <t>QBTS</t>
   </si>
   <si>
     <t>IBM</t>
@@ -73,13 +88,16 @@
     <t>IONQ</t>
   </si>
   <si>
-    <t>QBTS</t>
-  </si>
-  <si>
-    <t>건드리지 말기</t>
-  </si>
-  <si>
-    <t>바닥권 → 분할매수 준비</t>
+    <t>Pattern</t>
+  </si>
+  <si>
+    <t>📈 매수 관찰 구간입니다.</t>
+  </si>
+  <si>
+    <t>⛔ 관망하십시오.</t>
+  </si>
+  <si>
+    <t>🟢 완화적 (상승 우위)</t>
   </si>
 </sst>
 </file>
@@ -437,13 +455,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -477,145 +495,193 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D2">
-        <v>303.21</v>
-      </c>
-      <c r="E2">
-        <v>43.9</v>
+        <v>22.67</v>
       </c>
       <c r="F2">
-        <v>5.09</v>
+        <v>10.56</v>
       </c>
       <c r="G2">
+        <v>20</v>
+      </c>
+      <c r="H2">
+        <v>60</v>
+      </c>
+      <c r="I2">
+        <v>76</v>
+      </c>
+      <c r="J2">
+        <v>73</v>
+      </c>
+      <c r="K2">
+        <v>62</v>
+      </c>
+      <c r="L2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2">
+        <v>85.36763896678245</v>
+      </c>
+      <c r="O2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3">
+        <v>308.39</v>
+      </c>
+      <c r="F3">
+        <v>6.19</v>
+      </c>
+      <c r="G3">
         <v>40</v>
       </c>
-      <c r="H2">
+      <c r="H3">
+        <v>63</v>
+      </c>
+      <c r="I3">
+        <v>60</v>
+      </c>
+      <c r="J3">
+        <v>50</v>
+      </c>
+      <c r="K3">
+        <v>61.6</v>
+      </c>
+      <c r="L3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3">
+        <v>85.36763896678245</v>
+      </c>
+      <c r="O3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4">
+        <v>25.6</v>
+      </c>
+      <c r="F4">
+        <v>12.28</v>
+      </c>
+      <c r="G4">
+        <v>20</v>
+      </c>
+      <c r="H4">
+        <v>60</v>
+      </c>
+      <c r="I4">
         <v>70</v>
       </c>
-      <c r="I2">
-        <v>60</v>
-      </c>
-      <c r="J2">
-        <v>53</v>
-      </c>
-      <c r="K2" t="s">
-        <v>20</v>
+      <c r="J4">
+        <v>76</v>
+      </c>
+      <c r="K4">
+        <v>59.6</v>
+      </c>
+      <c r="L4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4">
+        <v>85.36763896678245</v>
+      </c>
+      <c r="O4" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3">
-        <v>25.57</v>
-      </c>
-      <c r="E3">
-        <v>26.8</v>
-      </c>
-      <c r="F3">
-        <v>0.43</v>
-      </c>
-      <c r="G3">
-        <v>20</v>
-      </c>
-      <c r="H3">
-        <v>60</v>
-      </c>
-      <c r="I3">
-        <v>66</v>
-      </c>
-      <c r="J3">
-        <v>73</v>
-      </c>
-      <c r="K3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4">
-        <v>46.9</v>
-      </c>
-      <c r="E4">
-        <v>34.4</v>
-      </c>
-      <c r="F4">
-        <v>-2.05</v>
-      </c>
-      <c r="G4">
-        <v>10</v>
-      </c>
-      <c r="H4">
-        <v>50</v>
-      </c>
-      <c r="I4">
+    <row r="5" spans="1:15">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5">
+        <v>49.22</v>
+      </c>
+      <c r="F5">
+        <v>20.05</v>
+      </c>
+      <c r="G5">
+        <v>30</v>
+      </c>
+      <c r="H5">
         <v>56</v>
       </c>
-      <c r="J4">
+      <c r="I5">
+        <v>56</v>
+      </c>
+      <c r="J5">
         <v>70</v>
       </c>
-      <c r="K4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5">
-        <v>22.41</v>
-      </c>
-      <c r="E5">
-        <v>30.4</v>
-      </c>
-      <c r="F5">
-        <v>-4.39</v>
-      </c>
-      <c r="G5">
-        <v>10</v>
-      </c>
-      <c r="H5">
-        <v>63</v>
-      </c>
-      <c r="I5">
-        <v>80</v>
-      </c>
-      <c r="J5">
-        <v>76</v>
-      </c>
-      <c r="K5" t="s">
-        <v>21</v>
+      <c r="K5">
+        <v>57</v>
+      </c>
+      <c r="L5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5">
+        <v>85.36763896678245</v>
+      </c>
+      <c r="O5" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/DECISION/미장_양자_분석.xlsx
+++ b/DECISION/미장_양자_분석.xlsx
@@ -519,10 +519,10 @@
         <v>20</v>
       </c>
       <c r="D2">
-        <v>22.67</v>
+        <v>22.52</v>
       </c>
       <c r="F2">
-        <v>10.56</v>
+        <v>9.82</v>
       </c>
       <c r="G2">
         <v>20</v>
@@ -531,13 +531,13 @@
         <v>60</v>
       </c>
       <c r="I2">
+        <v>80</v>
+      </c>
+      <c r="J2">
         <v>76</v>
       </c>
-      <c r="J2">
-        <v>73</v>
-      </c>
       <c r="K2">
-        <v>62</v>
+        <v>63.8</v>
       </c>
       <c r="L2" t="s">
         <v>24</v>
@@ -546,7 +546,7 @@
         <v>25</v>
       </c>
       <c r="N2">
-        <v>85.36763896678245</v>
+        <v>85.96878041621773</v>
       </c>
       <c r="O2" t="s">
         <v>27</v>
@@ -563,10 +563,10 @@
         <v>21</v>
       </c>
       <c r="D3">
-        <v>308.39</v>
+        <v>307.13</v>
       </c>
       <c r="F3">
-        <v>6.19</v>
+        <v>5.76</v>
       </c>
       <c r="G3">
         <v>40</v>
@@ -575,13 +575,13 @@
         <v>63</v>
       </c>
       <c r="I3">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J3">
         <v>50</v>
       </c>
       <c r="K3">
-        <v>61.6</v>
+        <v>63</v>
       </c>
       <c r="L3" t="s">
         <v>24</v>
@@ -590,7 +590,7 @@
         <v>25</v>
       </c>
       <c r="N3">
-        <v>85.36763896678245</v>
+        <v>85.96878041621773</v>
       </c>
       <c r="O3" t="s">
         <v>27</v>
@@ -607,10 +607,10 @@
         <v>22</v>
       </c>
       <c r="D4">
-        <v>25.6</v>
+        <v>25.57</v>
       </c>
       <c r="F4">
-        <v>12.28</v>
+        <v>12.15</v>
       </c>
       <c r="G4">
         <v>20</v>
@@ -625,7 +625,7 @@
         <v>76</v>
       </c>
       <c r="K4">
-        <v>59.6</v>
+        <v>59.8</v>
       </c>
       <c r="L4" t="s">
         <v>24</v>
@@ -634,7 +634,7 @@
         <v>26</v>
       </c>
       <c r="N4">
-        <v>85.36763896678245</v>
+        <v>85.96878041621773</v>
       </c>
       <c r="O4" t="s">
         <v>27</v>
@@ -651,10 +651,10 @@
         <v>23</v>
       </c>
       <c r="D5">
-        <v>49.22</v>
+        <v>48.9</v>
       </c>
       <c r="F5">
-        <v>20.05</v>
+        <v>19.27</v>
       </c>
       <c r="G5">
         <v>30</v>
@@ -669,7 +669,7 @@
         <v>70</v>
       </c>
       <c r="K5">
-        <v>57</v>
+        <v>57.2</v>
       </c>
       <c r="L5" t="s">
         <v>24</v>
@@ -678,7 +678,7 @@
         <v>26</v>
       </c>
       <c r="N5">
-        <v>85.36763896678245</v>
+        <v>85.96878041621773</v>
       </c>
       <c r="O5" t="s">
         <v>27</v>

--- a/DECISION/미장_양자_분석.xlsx
+++ b/DECISION/미장_양자_분석.xlsx
@@ -64,22 +64,22 @@
     <t>2025-11-29</t>
   </si>
   <si>
+    <t>International Business Machines</t>
+  </si>
+  <si>
     <t>D-Wave Quantum Inc.</t>
   </si>
   <si>
-    <t>International Business Machines</t>
-  </si>
-  <si>
     <t>Rigetti Computing, Inc.</t>
   </si>
   <si>
     <t>IonQ, Inc.</t>
   </si>
   <si>
+    <t>IBM</t>
+  </si>
+  <si>
     <t>QBTS</t>
-  </si>
-  <si>
-    <t>IBM</t>
   </si>
   <si>
     <t>RGTI</t>
@@ -519,25 +519,25 @@
         <v>20</v>
       </c>
       <c r="D2">
-        <v>22.52</v>
+        <v>307.13</v>
       </c>
       <c r="F2">
-        <v>9.82</v>
+        <v>5.76</v>
       </c>
       <c r="G2">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H2">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I2">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="J2">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="K2">
-        <v>63.8</v>
+        <v>63</v>
       </c>
       <c r="L2" t="s">
         <v>24</v>
@@ -546,7 +546,7 @@
         <v>25</v>
       </c>
       <c r="N2">
-        <v>85.96878041621773</v>
+        <v>85.83574689470727</v>
       </c>
       <c r="O2" t="s">
         <v>27</v>
@@ -563,25 +563,25 @@
         <v>21</v>
       </c>
       <c r="D3">
-        <v>307.13</v>
+        <v>22.67</v>
       </c>
       <c r="F3">
-        <v>5.76</v>
+        <v>10.53</v>
       </c>
       <c r="G3">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H3">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I3">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="J3">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="K3">
-        <v>63</v>
+        <v>62.2</v>
       </c>
       <c r="L3" t="s">
         <v>24</v>
@@ -590,7 +590,7 @@
         <v>25</v>
       </c>
       <c r="N3">
-        <v>85.96878041621773</v>
+        <v>85.83574689470727</v>
       </c>
       <c r="O3" t="s">
         <v>27</v>
@@ -634,7 +634,7 @@
         <v>26</v>
       </c>
       <c r="N4">
-        <v>85.96878041621773</v>
+        <v>85.83574689470727</v>
       </c>
       <c r="O4" t="s">
         <v>27</v>
@@ -678,7 +678,7 @@
         <v>26</v>
       </c>
       <c r="N5">
-        <v>85.96878041621773</v>
+        <v>85.83574689470727</v>
       </c>
       <c r="O5" t="s">
         <v>27</v>

--- a/DECISION/미장_양자_분석.xlsx
+++ b/DECISION/미장_양자_분석.xlsx
@@ -64,22 +64,22 @@
     <t>2025-11-29</t>
   </si>
   <si>
+    <t>D-Wave Quantum Inc.</t>
+  </si>
+  <si>
     <t>International Business Machines</t>
   </si>
   <si>
-    <t>D-Wave Quantum Inc.</t>
-  </si>
-  <si>
     <t>Rigetti Computing, Inc.</t>
   </si>
   <si>
     <t>IonQ, Inc.</t>
   </si>
   <si>
+    <t>QBTS</t>
+  </si>
+  <si>
     <t>IBM</t>
-  </si>
-  <si>
-    <t>QBTS</t>
   </si>
   <si>
     <t>RGTI</t>
@@ -519,25 +519,25 @@
         <v>20</v>
       </c>
       <c r="D2">
-        <v>307.13</v>
+        <v>22.67</v>
       </c>
       <c r="F2">
-        <v>5.76</v>
+        <v>10.53</v>
       </c>
       <c r="G2">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H2">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I2">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="J2">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="K2">
-        <v>63</v>
+        <v>62.1</v>
       </c>
       <c r="L2" t="s">
         <v>24</v>
@@ -546,7 +546,7 @@
         <v>25</v>
       </c>
       <c r="N2">
-        <v>85.83574689470727</v>
+        <v>85.82376350509293</v>
       </c>
       <c r="O2" t="s">
         <v>27</v>
@@ -563,25 +563,25 @@
         <v>21</v>
       </c>
       <c r="D3">
-        <v>22.67</v>
+        <v>308.58</v>
       </c>
       <c r="F3">
-        <v>10.53</v>
+        <v>6.26</v>
       </c>
       <c r="G3">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H3">
+        <v>63</v>
+      </c>
+      <c r="I3">
         <v>60</v>
       </c>
-      <c r="I3">
-        <v>76</v>
-      </c>
       <c r="J3">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="K3">
-        <v>62.2</v>
+        <v>61.7</v>
       </c>
       <c r="L3" t="s">
         <v>24</v>
@@ -590,7 +590,7 @@
         <v>25</v>
       </c>
       <c r="N3">
-        <v>85.83574689470727</v>
+        <v>85.82376350509293</v>
       </c>
       <c r="O3" t="s">
         <v>27</v>
@@ -625,7 +625,7 @@
         <v>76</v>
       </c>
       <c r="K4">
-        <v>59.8</v>
+        <v>59.7</v>
       </c>
       <c r="L4" t="s">
         <v>24</v>
@@ -634,7 +634,7 @@
         <v>26</v>
       </c>
       <c r="N4">
-        <v>85.83574689470727</v>
+        <v>85.82376350509293</v>
       </c>
       <c r="O4" t="s">
         <v>27</v>
@@ -651,10 +651,10 @@
         <v>23</v>
       </c>
       <c r="D5">
-        <v>48.9</v>
+        <v>49.3</v>
       </c>
       <c r="F5">
-        <v>19.27</v>
+        <v>20.24</v>
       </c>
       <c r="G5">
         <v>30</v>
@@ -669,7 +669,7 @@
         <v>70</v>
       </c>
       <c r="K5">
-        <v>57.2</v>
+        <v>57.1</v>
       </c>
       <c r="L5" t="s">
         <v>24</v>
@@ -678,7 +678,7 @@
         <v>26</v>
       </c>
       <c r="N5">
-        <v>85.83574689470727</v>
+        <v>85.82376350509293</v>
       </c>
       <c r="O5" t="s">
         <v>27</v>

--- a/DECISION/미장_양자_분석.xlsx
+++ b/DECISION/미장_양자_분석.xlsx
@@ -546,7 +546,7 @@
         <v>25</v>
       </c>
       <c r="N2">
-        <v>85.82376350509293</v>
+        <v>85.77505782882612</v>
       </c>
       <c r="O2" t="s">
         <v>27</v>
@@ -590,7 +590,7 @@
         <v>25</v>
       </c>
       <c r="N3">
-        <v>85.82376350509293</v>
+        <v>85.77505782882612</v>
       </c>
       <c r="O3" t="s">
         <v>27</v>
@@ -634,7 +634,7 @@
         <v>26</v>
       </c>
       <c r="N4">
-        <v>85.82376350509293</v>
+        <v>85.77505782882612</v>
       </c>
       <c r="O4" t="s">
         <v>27</v>
@@ -678,7 +678,7 @@
         <v>26</v>
       </c>
       <c r="N5">
-        <v>85.82376350509293</v>
+        <v>85.77505782882612</v>
       </c>
       <c r="O5" t="s">
         <v>27</v>

--- a/DECISION/미장_양자_분석.xlsx
+++ b/DECISION/미장_양자_분석.xlsx
@@ -537,7 +537,7 @@
         <v>73</v>
       </c>
       <c r="K2">
-        <v>62.1</v>
+        <v>62.2</v>
       </c>
       <c r="L2" t="s">
         <v>24</v>
@@ -546,7 +546,7 @@
         <v>25</v>
       </c>
       <c r="N2">
-        <v>85.77505782882612</v>
+        <v>85.8724807945396</v>
       </c>
       <c r="O2" t="s">
         <v>27</v>
@@ -581,7 +581,7 @@
         <v>50</v>
       </c>
       <c r="K3">
-        <v>61.7</v>
+        <v>61.8</v>
       </c>
       <c r="L3" t="s">
         <v>24</v>
@@ -590,7 +590,7 @@
         <v>25</v>
       </c>
       <c r="N3">
-        <v>85.77505782882612</v>
+        <v>85.8724807945396</v>
       </c>
       <c r="O3" t="s">
         <v>27</v>
@@ -625,7 +625,7 @@
         <v>76</v>
       </c>
       <c r="K4">
-        <v>59.7</v>
+        <v>59.8</v>
       </c>
       <c r="L4" t="s">
         <v>24</v>
@@ -634,7 +634,7 @@
         <v>26</v>
       </c>
       <c r="N4">
-        <v>85.77505782882612</v>
+        <v>85.8724807945396</v>
       </c>
       <c r="O4" t="s">
         <v>27</v>
@@ -669,7 +669,7 @@
         <v>70</v>
       </c>
       <c r="K5">
-        <v>57.1</v>
+        <v>57.2</v>
       </c>
       <c r="L5" t="s">
         <v>24</v>
@@ -678,7 +678,7 @@
         <v>26</v>
       </c>
       <c r="N5">
-        <v>85.77505782882612</v>
+        <v>85.8724807945396</v>
       </c>
       <c r="O5" t="s">
         <v>27</v>

--- a/DECISION/미장_양자_분석.xlsx
+++ b/DECISION/미장_양자_분석.xlsx
@@ -546,7 +546,7 @@
         <v>25</v>
       </c>
       <c r="N2">
-        <v>85.8724807945396</v>
+        <v>85.92117485762657</v>
       </c>
       <c r="O2" t="s">
         <v>27</v>
@@ -590,7 +590,7 @@
         <v>25</v>
       </c>
       <c r="N3">
-        <v>85.8724807945396</v>
+        <v>85.92117485762657</v>
       </c>
       <c r="O3" t="s">
         <v>27</v>
@@ -634,7 +634,7 @@
         <v>26</v>
       </c>
       <c r="N4">
-        <v>85.8724807945396</v>
+        <v>85.92117485762657</v>
       </c>
       <c r="O4" t="s">
         <v>27</v>
@@ -678,7 +678,7 @@
         <v>26</v>
       </c>
       <c r="N5">
-        <v>85.8724807945396</v>
+        <v>85.92117485762657</v>
       </c>
       <c r="O5" t="s">
         <v>27</v>

--- a/DECISION/미장_양자_분석.xlsx
+++ b/DECISION/미장_양자_분석.xlsx
@@ -546,7 +546,7 @@
         <v>25</v>
       </c>
       <c r="N2">
-        <v>85.92117485762657</v>
+        <v>85.8724807945396</v>
       </c>
       <c r="O2" t="s">
         <v>27</v>
@@ -590,7 +590,7 @@
         <v>25</v>
       </c>
       <c r="N3">
-        <v>85.92117485762657</v>
+        <v>85.8724807945396</v>
       </c>
       <c r="O3" t="s">
         <v>27</v>
@@ -634,7 +634,7 @@
         <v>26</v>
       </c>
       <c r="N4">
-        <v>85.92117485762657</v>
+        <v>85.8724807945396</v>
       </c>
       <c r="O4" t="s">
         <v>27</v>
@@ -678,7 +678,7 @@
         <v>26</v>
       </c>
       <c r="N5">
-        <v>85.92117485762657</v>
+        <v>85.8724807945396</v>
       </c>
       <c r="O5" t="s">
         <v>27</v>

--- a/DECISION/미장_양자_분석.xlsx
+++ b/DECISION/미장_양자_분석.xlsx
@@ -64,22 +64,22 @@
     <t>2025-11-29</t>
   </si>
   <si>
+    <t>International Business Machines</t>
+  </si>
+  <si>
     <t>D-Wave Quantum Inc.</t>
   </si>
   <si>
-    <t>International Business Machines</t>
-  </si>
-  <si>
     <t>Rigetti Computing, Inc.</t>
   </si>
   <si>
     <t>IonQ, Inc.</t>
   </si>
   <si>
+    <t>IBM</t>
+  </si>
+  <si>
     <t>QBTS</t>
-  </si>
-  <si>
-    <t>IBM</t>
   </si>
   <si>
     <t>RGTI</t>
@@ -519,25 +519,28 @@
         <v>20</v>
       </c>
       <c r="D2">
-        <v>22.67</v>
+        <v>308.58</v>
+      </c>
+      <c r="E2">
+        <v>53.2</v>
       </c>
       <c r="F2">
-        <v>10.53</v>
+        <v>6.26</v>
       </c>
       <c r="G2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="H2">
+        <v>63</v>
+      </c>
+      <c r="I2">
         <v>60</v>
       </c>
-      <c r="I2">
-        <v>76</v>
-      </c>
       <c r="J2">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="K2">
-        <v>62.2</v>
+        <v>64.8</v>
       </c>
       <c r="L2" t="s">
         <v>24</v>
@@ -546,7 +549,7 @@
         <v>25</v>
       </c>
       <c r="N2">
-        <v>85.8724807945396</v>
+        <v>85.87127175646313</v>
       </c>
       <c r="O2" t="s">
         <v>27</v>
@@ -563,25 +566,28 @@
         <v>21</v>
       </c>
       <c r="D3">
-        <v>308.58</v>
+        <v>22.67</v>
+      </c>
+      <c r="E3">
+        <v>26.3</v>
       </c>
       <c r="F3">
-        <v>6.26</v>
+        <v>10.53</v>
       </c>
       <c r="G3">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H3">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I3">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="J3">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="K3">
-        <v>61.8</v>
+        <v>62.2</v>
       </c>
       <c r="L3" t="s">
         <v>24</v>
@@ -590,7 +596,7 @@
         <v>25</v>
       </c>
       <c r="N3">
-        <v>85.8724807945396</v>
+        <v>85.87127175646313</v>
       </c>
       <c r="O3" t="s">
         <v>27</v>
@@ -609,6 +615,9 @@
       <c r="D4">
         <v>25.57</v>
       </c>
+      <c r="E4">
+        <v>27.6</v>
+      </c>
       <c r="F4">
         <v>12.15</v>
       </c>
@@ -634,7 +643,7 @@
         <v>26</v>
       </c>
       <c r="N4">
-        <v>85.8724807945396</v>
+        <v>85.87127175646313</v>
       </c>
       <c r="O4" t="s">
         <v>27</v>
@@ -653,6 +662,9 @@
       <c r="D5">
         <v>49.3</v>
       </c>
+      <c r="E5">
+        <v>35.5</v>
+      </c>
       <c r="F5">
         <v>20.24</v>
       </c>
@@ -678,7 +690,7 @@
         <v>26</v>
       </c>
       <c r="N5">
-        <v>85.8724807945396</v>
+        <v>85.87127175646313</v>
       </c>
       <c r="O5" t="s">
         <v>27</v>

--- a/DECISION/미장_양자_분석.xlsx
+++ b/DECISION/미장_양자_분석.xlsx
@@ -61,7 +61,7 @@
     <t>MACRO_SIGNAL</t>
   </si>
   <si>
-    <t>2025-11-29</t>
+    <t>2025-12-01</t>
   </si>
   <si>
     <t>International Business Machines</t>
@@ -549,7 +549,7 @@
         <v>25</v>
       </c>
       <c r="N2">
-        <v>85.87127175646313</v>
+        <v>85.87246918135976</v>
       </c>
       <c r="O2" t="s">
         <v>27</v>
@@ -596,7 +596,7 @@
         <v>25</v>
       </c>
       <c r="N3">
-        <v>85.87127175646313</v>
+        <v>85.87246918135976</v>
       </c>
       <c r="O3" t="s">
         <v>27</v>
@@ -643,7 +643,7 @@
         <v>26</v>
       </c>
       <c r="N4">
-        <v>85.87127175646313</v>
+        <v>85.87246918135976</v>
       </c>
       <c r="O4" t="s">
         <v>27</v>
@@ -690,7 +690,7 @@
         <v>26</v>
       </c>
       <c r="N5">
-        <v>85.87127175646313</v>
+        <v>85.87246918135976</v>
       </c>
       <c r="O5" t="s">
         <v>27</v>

--- a/DECISION/미장_양자_분석.xlsx
+++ b/DECISION/미장_양자_분석.xlsx
@@ -549,7 +549,7 @@
         <v>25</v>
       </c>
       <c r="N2">
-        <v>85.87246918135976</v>
+        <v>85.92500513438651</v>
       </c>
       <c r="O2" t="s">
         <v>27</v>
@@ -596,7 +596,7 @@
         <v>25</v>
       </c>
       <c r="N3">
-        <v>85.87246918135976</v>
+        <v>85.92500513438651</v>
       </c>
       <c r="O3" t="s">
         <v>27</v>
@@ -643,7 +643,7 @@
         <v>26</v>
       </c>
       <c r="N4">
-        <v>85.87246918135976</v>
+        <v>85.92500513438651</v>
       </c>
       <c r="O4" t="s">
         <v>27</v>
@@ -690,7 +690,7 @@
         <v>26</v>
       </c>
       <c r="N5">
-        <v>85.87246918135976</v>
+        <v>85.92500513438651</v>
       </c>
       <c r="O5" t="s">
         <v>27</v>

--- a/DECISION/미장_양자_분석.xlsx
+++ b/DECISION/미장_양자_분석.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
   <si>
     <t>날짜</t>
   </si>
@@ -61,7 +61,7 @@
     <t>MACRO_SIGNAL</t>
   </si>
   <si>
-    <t>2025-12-01</t>
+    <t>2025-12-03</t>
   </si>
   <si>
     <t>International Business Machines</t>
@@ -91,13 +91,10 @@
     <t>Pattern</t>
   </si>
   <si>
-    <t>📈 매수 관찰 구간입니다.</t>
-  </si>
-  <si>
     <t>⛔ 관망하십시오.</t>
   </si>
   <si>
-    <t>🟢 완화적 (상승 우위)</t>
+    <t>🟢 상승 우위 (다소 완화)</t>
   </si>
 </sst>
 </file>
@@ -519,28 +516,28 @@
         <v>20</v>
       </c>
       <c r="D2">
-        <v>308.58</v>
+        <v>304.73</v>
       </c>
       <c r="E2">
-        <v>53.2</v>
+        <v>41.9</v>
       </c>
       <c r="F2">
-        <v>6.26</v>
+        <v>0.2</v>
       </c>
       <c r="G2">
         <v>50</v>
       </c>
       <c r="H2">
+        <v>66</v>
+      </c>
+      <c r="I2">
         <v>63</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>60</v>
       </c>
-      <c r="J2">
-        <v>50</v>
-      </c>
       <c r="K2">
-        <v>64.8</v>
+        <v>59.8</v>
       </c>
       <c r="L2" t="s">
         <v>24</v>
@@ -549,10 +546,10 @@
         <v>25</v>
       </c>
       <c r="N2">
-        <v>85.92500513438651</v>
+        <v>65.32892478746797</v>
       </c>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -566,28 +563,28 @@
         <v>21</v>
       </c>
       <c r="D3">
-        <v>22.67</v>
+        <v>22.17</v>
       </c>
       <c r="E3">
-        <v>26.3</v>
+        <v>28.5</v>
       </c>
       <c r="F3">
-        <v>10.53</v>
+        <v>-4.09</v>
       </c>
       <c r="G3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H3">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="I3">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="J3">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="K3">
-        <v>62.2</v>
+        <v>58.6</v>
       </c>
       <c r="L3" t="s">
         <v>24</v>
@@ -596,10 +593,10 @@
         <v>25</v>
       </c>
       <c r="N3">
-        <v>85.92500513438651</v>
+        <v>65.32892478746797</v>
       </c>
       <c r="O3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -613,40 +610,40 @@
         <v>22</v>
       </c>
       <c r="D4">
-        <v>25.57</v>
+        <v>23.93</v>
       </c>
       <c r="E4">
-        <v>27.6</v>
+        <v>29.9</v>
       </c>
       <c r="F4">
-        <v>12.15</v>
+        <v>-9.94</v>
       </c>
       <c r="G4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H4">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="I4">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="J4">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="K4">
-        <v>59.8</v>
+        <v>55.8</v>
       </c>
       <c r="L4" t="s">
         <v>24</v>
       </c>
       <c r="M4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4">
+        <v>65.32892478746797</v>
+      </c>
+      <c r="O4" t="s">
         <v>26</v>
-      </c>
-      <c r="N4">
-        <v>85.92500513438651</v>
-      </c>
-      <c r="O4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -660,40 +657,40 @@
         <v>23</v>
       </c>
       <c r="D5">
-        <v>49.3</v>
+        <v>47.5</v>
       </c>
       <c r="E5">
-        <v>35.5</v>
+        <v>39.2</v>
       </c>
       <c r="F5">
-        <v>20.24</v>
+        <v>1.59</v>
       </c>
       <c r="G5">
         <v>30</v>
       </c>
       <c r="H5">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="I5">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J5">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="K5">
-        <v>57.2</v>
+        <v>49.8</v>
       </c>
       <c r="L5" t="s">
         <v>24</v>
       </c>
       <c r="M5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N5">
+        <v>65.32892478746797</v>
+      </c>
+      <c r="O5" t="s">
         <v>26</v>
-      </c>
-      <c r="N5">
-        <v>85.92500513438651</v>
-      </c>
-      <c r="O5" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/DECISION/미장_양자_분석.xlsx
+++ b/DECISION/미장_양자_분석.xlsx
@@ -64,25 +64,25 @@
     <t>2025-12-03</t>
   </si>
   <si>
+    <t>D-Wave Quantum Inc.</t>
+  </si>
+  <si>
+    <t>Rigetti Computing, Inc.</t>
+  </si>
+  <si>
     <t>International Business Machines</t>
   </si>
   <si>
-    <t>D-Wave Quantum Inc.</t>
-  </si>
-  <si>
-    <t>Rigetti Computing, Inc.</t>
-  </si>
-  <si>
     <t>IonQ, Inc.</t>
   </si>
   <si>
+    <t>QBTS</t>
+  </si>
+  <si>
+    <t>RGTI</t>
+  </si>
+  <si>
     <t>IBM</t>
-  </si>
-  <si>
-    <t>QBTS</t>
-  </si>
-  <si>
-    <t>RGTI</t>
   </si>
   <si>
     <t>IONQ</t>
@@ -516,28 +516,28 @@
         <v>20</v>
       </c>
       <c r="D2">
-        <v>304.73</v>
+        <v>22.5</v>
       </c>
       <c r="E2">
-        <v>41.9</v>
+        <v>30</v>
       </c>
       <c r="F2">
-        <v>0.2</v>
+        <v>-2.64</v>
       </c>
       <c r="G2">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="H2">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="I2">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="J2">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K2">
-        <v>59.8</v>
+        <v>57.2</v>
       </c>
       <c r="L2" t="s">
         <v>24</v>
@@ -546,7 +546,7 @@
         <v>25</v>
       </c>
       <c r="N2">
-        <v>65.32892478746797</v>
+        <v>66.04328690552585</v>
       </c>
       <c r="O2" t="s">
         <v>26</v>
@@ -563,28 +563,28 @@
         <v>21</v>
       </c>
       <c r="D3">
-        <v>22.17</v>
+        <v>23.88</v>
       </c>
       <c r="E3">
-        <v>28.5</v>
+        <v>29.7</v>
       </c>
       <c r="F3">
-        <v>-4.09</v>
+        <v>-10.12</v>
       </c>
       <c r="G3">
         <v>10</v>
       </c>
       <c r="H3">
+        <v>70</v>
+      </c>
+      <c r="I3">
         <v>83</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>90</v>
       </c>
-      <c r="J3">
-        <v>83</v>
-      </c>
       <c r="K3">
-        <v>58.6</v>
+        <v>56</v>
       </c>
       <c r="L3" t="s">
         <v>24</v>
@@ -593,7 +593,7 @@
         <v>25</v>
       </c>
       <c r="N3">
-        <v>65.32892478746797</v>
+        <v>66.04328690552585</v>
       </c>
       <c r="O3" t="s">
         <v>26</v>
@@ -610,28 +610,28 @@
         <v>22</v>
       </c>
       <c r="D4">
-        <v>23.93</v>
+        <v>301.78</v>
       </c>
       <c r="E4">
-        <v>29.9</v>
+        <v>39.8</v>
       </c>
       <c r="F4">
-        <v>-9.94</v>
+        <v>-0.77</v>
       </c>
       <c r="G4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H4">
+        <v>73</v>
+      </c>
+      <c r="I4">
         <v>66</v>
       </c>
-      <c r="I4">
-        <v>83</v>
-      </c>
       <c r="J4">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="K4">
-        <v>55.8</v>
+        <v>52.2</v>
       </c>
       <c r="L4" t="s">
         <v>24</v>
@@ -640,7 +640,7 @@
         <v>25</v>
       </c>
       <c r="N4">
-        <v>65.32892478746797</v>
+        <v>66.04328690552585</v>
       </c>
       <c r="O4" t="s">
         <v>26</v>
@@ -657,28 +657,28 @@
         <v>23</v>
       </c>
       <c r="D5">
-        <v>47.5</v>
+        <v>46.93</v>
       </c>
       <c r="E5">
-        <v>39.2</v>
+        <v>38.2</v>
       </c>
       <c r="F5">
-        <v>1.59</v>
+        <v>0.36</v>
       </c>
       <c r="G5">
         <v>30</v>
       </c>
       <c r="H5">
+        <v>46</v>
+      </c>
+      <c r="I5">
         <v>50</v>
       </c>
-      <c r="I5">
-        <v>53</v>
-      </c>
       <c r="J5">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K5">
-        <v>49.8</v>
+        <v>48.8</v>
       </c>
       <c r="L5" t="s">
         <v>24</v>
@@ -687,7 +687,7 @@
         <v>25</v>
       </c>
       <c r="N5">
-        <v>65.32892478746797</v>
+        <v>66.04328690552585</v>
       </c>
       <c r="O5" t="s">
         <v>26</v>

--- a/DECISION/미장_양자_분석.xlsx
+++ b/DECISION/미장_양자_분석.xlsx
@@ -546,7 +546,7 @@
         <v>25</v>
       </c>
       <c r="N2">
-        <v>66.04328690552585</v>
+        <v>66.09241856096124</v>
       </c>
       <c r="O2" t="s">
         <v>26</v>
@@ -593,7 +593,7 @@
         <v>25</v>
       </c>
       <c r="N3">
-        <v>66.04328690552585</v>
+        <v>66.09241856096124</v>
       </c>
       <c r="O3" t="s">
         <v>26</v>
@@ -640,7 +640,7 @@
         <v>25</v>
       </c>
       <c r="N4">
-        <v>66.04328690552585</v>
+        <v>66.09241856096124</v>
       </c>
       <c r="O4" t="s">
         <v>26</v>
@@ -687,7 +687,7 @@
         <v>25</v>
       </c>
       <c r="N5">
-        <v>66.04328690552585</v>
+        <v>66.09241856096124</v>
       </c>
       <c r="O5" t="s">
         <v>26</v>

--- a/DECISION/미장_양자_분석.xlsx
+++ b/DECISION/미장_양자_분석.xlsx
@@ -61,40 +61,40 @@
     <t>MACRO_SIGNAL</t>
   </si>
   <si>
-    <t>2025-12-03</t>
+    <t>2025-12-05</t>
   </si>
   <si>
     <t>D-Wave Quantum Inc.</t>
   </si>
   <si>
+    <t>IonQ, Inc.</t>
+  </si>
+  <si>
     <t>Rigetti Computing, Inc.</t>
   </si>
   <si>
     <t>International Business Machines</t>
   </si>
   <si>
-    <t>IonQ, Inc.</t>
-  </si>
-  <si>
     <t>QBTS</t>
   </si>
   <si>
+    <t>IONQ</t>
+  </si>
+  <si>
     <t>RGTI</t>
   </si>
   <si>
     <t>IBM</t>
   </si>
   <si>
-    <t>IONQ</t>
-  </si>
-  <si>
     <t>Pattern</t>
   </si>
   <si>
     <t>⛔ 관망하십시오.</t>
   </si>
   <si>
-    <t>🟢 상승 우위 (다소 완화)</t>
+    <t>⚪ 중립 구간</t>
   </si>
 </sst>
 </file>
@@ -516,28 +516,28 @@
         <v>20</v>
       </c>
       <c r="D2">
-        <v>22.5</v>
+        <v>27.95</v>
       </c>
       <c r="E2">
-        <v>30</v>
+        <v>64.2</v>
       </c>
       <c r="F2">
-        <v>-2.64</v>
+        <v>24.72</v>
       </c>
       <c r="G2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="H2">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="I2">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="J2">
         <v>80</v>
       </c>
       <c r="K2">
-        <v>57.2</v>
+        <v>58.7</v>
       </c>
       <c r="L2" t="s">
         <v>24</v>
@@ -546,7 +546,7 @@
         <v>25</v>
       </c>
       <c r="N2">
-        <v>66.09241856096124</v>
+        <v>52.43913937059539</v>
       </c>
       <c r="O2" t="s">
         <v>26</v>
@@ -563,28 +563,28 @@
         <v>21</v>
       </c>
       <c r="D3">
-        <v>23.88</v>
+        <v>54.46</v>
       </c>
       <c r="E3">
-        <v>29.7</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="F3">
-        <v>-10.12</v>
+        <v>16.11</v>
       </c>
       <c r="G3">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="H3">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="I3">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="J3">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="K3">
-        <v>56</v>
+        <v>57.7</v>
       </c>
       <c r="L3" t="s">
         <v>24</v>
@@ -593,7 +593,7 @@
         <v>25</v>
       </c>
       <c r="N3">
-        <v>66.09241856096124</v>
+        <v>52.43913937059539</v>
       </c>
       <c r="O3" t="s">
         <v>26</v>
@@ -610,28 +610,28 @@
         <v>22</v>
       </c>
       <c r="D4">
-        <v>301.78</v>
+        <v>28.82</v>
       </c>
       <c r="E4">
-        <v>39.8</v>
+        <v>60.5</v>
       </c>
       <c r="F4">
-        <v>-0.77</v>
+        <v>12.71</v>
       </c>
       <c r="G4">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="H4">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="I4">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J4">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="K4">
-        <v>52.2</v>
+        <v>55.9</v>
       </c>
       <c r="L4" t="s">
         <v>24</v>
@@ -640,7 +640,7 @@
         <v>25</v>
       </c>
       <c r="N4">
-        <v>66.09241856096124</v>
+        <v>52.43913937059539</v>
       </c>
       <c r="O4" t="s">
         <v>26</v>
@@ -657,28 +657,28 @@
         <v>23</v>
       </c>
       <c r="D5">
-        <v>46.93</v>
+        <v>308.17</v>
       </c>
       <c r="E5">
-        <v>38.2</v>
+        <v>53.1</v>
       </c>
       <c r="F5">
-        <v>0.36</v>
+        <v>1.64</v>
       </c>
       <c r="G5">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H5">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="I5">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="J5">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="K5">
-        <v>48.8</v>
+        <v>54.7</v>
       </c>
       <c r="L5" t="s">
         <v>24</v>
@@ -687,7 +687,7 @@
         <v>25</v>
       </c>
       <c r="N5">
-        <v>66.09241856096124</v>
+        <v>52.43913937059539</v>
       </c>
       <c r="O5" t="s">
         <v>26</v>

--- a/DECISION/미장_양자_분석.xlsx
+++ b/DECISION/미장_양자_분석.xlsx
@@ -64,22 +64,22 @@
     <t>2025-12-05</t>
   </si>
   <si>
+    <t>IonQ, Inc.</t>
+  </si>
+  <si>
     <t>D-Wave Quantum Inc.</t>
   </si>
   <si>
-    <t>IonQ, Inc.</t>
-  </si>
-  <si>
     <t>Rigetti Computing, Inc.</t>
   </si>
   <si>
     <t>International Business Machines</t>
   </si>
   <si>
+    <t>IONQ</t>
+  </si>
+  <si>
     <t>QBTS</t>
-  </si>
-  <si>
-    <t>IONQ</t>
   </si>
   <si>
     <t>RGTI</t>
@@ -516,28 +516,28 @@
         <v>20</v>
       </c>
       <c r="D2">
-        <v>27.95</v>
+        <v>54.26</v>
       </c>
       <c r="E2">
-        <v>64.2</v>
+        <v>64.7</v>
       </c>
       <c r="F2">
-        <v>24.72</v>
+        <v>15.7</v>
       </c>
       <c r="G2">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H2">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="I2">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="J2">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="K2">
-        <v>58.7</v>
+        <v>57.7</v>
       </c>
       <c r="L2" t="s">
         <v>24</v>
@@ -546,7 +546,7 @@
         <v>25</v>
       </c>
       <c r="N2">
-        <v>52.43913937059539</v>
+        <v>52.47848103381103</v>
       </c>
       <c r="O2" t="s">
         <v>26</v>
@@ -563,28 +563,28 @@
         <v>21</v>
       </c>
       <c r="D3">
-        <v>54.46</v>
+        <v>27.8</v>
       </c>
       <c r="E3">
-        <v>64.90000000000001</v>
+        <v>63.8</v>
       </c>
       <c r="F3">
-        <v>16.11</v>
+        <v>24.06</v>
       </c>
       <c r="G3">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H3">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="I3">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="J3">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="K3">
-        <v>57.7</v>
+        <v>57.1</v>
       </c>
       <c r="L3" t="s">
         <v>24</v>
@@ -593,7 +593,7 @@
         <v>25</v>
       </c>
       <c r="N3">
-        <v>52.43913937059539</v>
+        <v>52.47848103381103</v>
       </c>
       <c r="O3" t="s">
         <v>26</v>
@@ -610,13 +610,13 @@
         <v>22</v>
       </c>
       <c r="D4">
-        <v>28.82</v>
+        <v>28.66</v>
       </c>
       <c r="E4">
-        <v>60.5</v>
+        <v>60.1</v>
       </c>
       <c r="F4">
-        <v>12.71</v>
+        <v>12.06</v>
       </c>
       <c r="G4">
         <v>50</v>
@@ -640,7 +640,7 @@
         <v>25</v>
       </c>
       <c r="N4">
-        <v>52.43913937059539</v>
+        <v>52.47848103381103</v>
       </c>
       <c r="O4" t="s">
         <v>26</v>
@@ -657,13 +657,13 @@
         <v>23</v>
       </c>
       <c r="D5">
-        <v>308.17</v>
+        <v>308.03</v>
       </c>
       <c r="E5">
-        <v>53.1</v>
+        <v>53</v>
       </c>
       <c r="F5">
-        <v>1.64</v>
+        <v>1.59</v>
       </c>
       <c r="G5">
         <v>50</v>
@@ -687,7 +687,7 @@
         <v>25</v>
       </c>
       <c r="N5">
-        <v>52.43913937059539</v>
+        <v>52.47848103381103</v>
       </c>
       <c r="O5" t="s">
         <v>26</v>

--- a/DECISION/미장_양자_분석.xlsx
+++ b/DECISION/미장_양자_분석.xlsx
@@ -70,22 +70,22 @@
     <t>D-Wave Quantum Inc.</t>
   </si>
   <si>
+    <t>International Business Machines</t>
+  </si>
+  <si>
     <t>Rigetti Computing, Inc.</t>
   </si>
   <si>
-    <t>International Business Machines</t>
-  </si>
-  <si>
     <t>IONQ</t>
   </si>
   <si>
     <t>QBTS</t>
   </si>
   <si>
+    <t>IBM</t>
+  </si>
+  <si>
     <t>RGTI</t>
-  </si>
-  <si>
-    <t>IBM</t>
   </si>
   <si>
     <t>Pattern</t>
@@ -516,13 +516,13 @@
         <v>20</v>
       </c>
       <c r="D2">
-        <v>54.26</v>
+        <v>54.46</v>
       </c>
       <c r="E2">
-        <v>64.7</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="F2">
-        <v>15.7</v>
+        <v>16.11</v>
       </c>
       <c r="G2">
         <v>60</v>
@@ -537,7 +537,7 @@
         <v>63</v>
       </c>
       <c r="K2">
-        <v>57.7</v>
+        <v>58.1</v>
       </c>
       <c r="L2" t="s">
         <v>24</v>
@@ -546,7 +546,7 @@
         <v>25</v>
       </c>
       <c r="N2">
-        <v>52.47848103381103</v>
+        <v>53.62998959737769</v>
       </c>
       <c r="O2" t="s">
         <v>26</v>
@@ -563,13 +563,13 @@
         <v>21</v>
       </c>
       <c r="D3">
-        <v>27.8</v>
+        <v>28.21</v>
       </c>
       <c r="E3">
-        <v>63.8</v>
+        <v>64.8</v>
       </c>
       <c r="F3">
-        <v>24.06</v>
+        <v>25.9</v>
       </c>
       <c r="G3">
         <v>50</v>
@@ -581,10 +581,10 @@
         <v>66</v>
       </c>
       <c r="J3">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="K3">
-        <v>57.1</v>
+        <v>57.5</v>
       </c>
       <c r="L3" t="s">
         <v>24</v>
@@ -593,7 +593,7 @@
         <v>25</v>
       </c>
       <c r="N3">
-        <v>52.47848103381103</v>
+        <v>53.62998959737769</v>
       </c>
       <c r="O3" t="s">
         <v>26</v>
@@ -610,28 +610,28 @@
         <v>22</v>
       </c>
       <c r="D4">
-        <v>28.66</v>
+        <v>306.89</v>
       </c>
       <c r="E4">
-        <v>60.1</v>
+        <v>51.9</v>
       </c>
       <c r="F4">
-        <v>12.06</v>
+        <v>1.21</v>
       </c>
       <c r="G4">
         <v>50</v>
       </c>
       <c r="H4">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I4">
         <v>63</v>
       </c>
       <c r="J4">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="K4">
-        <v>55.9</v>
+        <v>56.3</v>
       </c>
       <c r="L4" t="s">
         <v>24</v>
@@ -640,7 +640,7 @@
         <v>25</v>
       </c>
       <c r="N4">
-        <v>52.47848103381103</v>
+        <v>53.62998959737769</v>
       </c>
       <c r="O4" t="s">
         <v>26</v>
@@ -657,28 +657,28 @@
         <v>23</v>
       </c>
       <c r="D5">
-        <v>308.03</v>
+        <v>29.01</v>
       </c>
       <c r="E5">
-        <v>53</v>
+        <v>60.9</v>
       </c>
       <c r="F5">
-        <v>1.59</v>
+        <v>13.45</v>
       </c>
       <c r="G5">
         <v>50</v>
       </c>
       <c r="H5">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I5">
         <v>60</v>
       </c>
       <c r="J5">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="K5">
-        <v>54.7</v>
+        <v>55.1</v>
       </c>
       <c r="L5" t="s">
         <v>24</v>
@@ -687,7 +687,7 @@
         <v>25</v>
       </c>
       <c r="N5">
-        <v>52.47848103381103</v>
+        <v>53.62998959737769</v>
       </c>
       <c r="O5" t="s">
         <v>26</v>

--- a/DECISION/미장_양자_분석.xlsx
+++ b/DECISION/미장_양자_분석.xlsx
@@ -67,25 +67,25 @@
     <t>IonQ, Inc.</t>
   </si>
   <si>
+    <t>Rigetti Computing, Inc.</t>
+  </si>
+  <si>
     <t>D-Wave Quantum Inc.</t>
   </si>
   <si>
     <t>International Business Machines</t>
   </si>
   <si>
-    <t>Rigetti Computing, Inc.</t>
-  </si>
-  <si>
     <t>IONQ</t>
   </si>
   <si>
+    <t>RGTI</t>
+  </si>
+  <si>
     <t>QBTS</t>
   </si>
   <si>
     <t>IBM</t>
-  </si>
-  <si>
-    <t>RGTI</t>
   </si>
   <si>
     <t>Pattern</t>
@@ -516,13 +516,13 @@
         <v>20</v>
       </c>
       <c r="D2">
-        <v>54.46</v>
+        <v>54.79</v>
       </c>
       <c r="E2">
-        <v>64.90000000000001</v>
+        <v>65.3</v>
       </c>
       <c r="F2">
-        <v>16.11</v>
+        <v>16.82</v>
       </c>
       <c r="G2">
         <v>60</v>
@@ -546,7 +546,7 @@
         <v>25</v>
       </c>
       <c r="N2">
-        <v>53.62998959737769</v>
+        <v>53.71147335634279</v>
       </c>
       <c r="O2" t="s">
         <v>26</v>
@@ -563,13 +563,13 @@
         <v>21</v>
       </c>
       <c r="D3">
-        <v>28.21</v>
+        <v>29.18</v>
       </c>
       <c r="E3">
-        <v>64.8</v>
+        <v>61.3</v>
       </c>
       <c r="F3">
-        <v>25.9</v>
+        <v>14.14</v>
       </c>
       <c r="G3">
         <v>50</v>
@@ -578,13 +578,13 @@
         <v>66</v>
       </c>
       <c r="I3">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J3">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="K3">
-        <v>57.5</v>
+        <v>56.3</v>
       </c>
       <c r="L3" t="s">
         <v>24</v>
@@ -593,7 +593,7 @@
         <v>25</v>
       </c>
       <c r="N3">
-        <v>53.62998959737769</v>
+        <v>53.71147335634279</v>
       </c>
       <c r="O3" t="s">
         <v>26</v>
@@ -610,25 +610,25 @@
         <v>22</v>
       </c>
       <c r="D4">
-        <v>306.89</v>
+        <v>28.33</v>
       </c>
       <c r="E4">
-        <v>51.9</v>
+        <v>65</v>
       </c>
       <c r="F4">
-        <v>1.21</v>
+        <v>26.44</v>
       </c>
       <c r="G4">
         <v>50</v>
       </c>
       <c r="H4">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="I4">
         <v>63</v>
       </c>
       <c r="J4">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="K4">
         <v>56.3</v>
@@ -640,7 +640,7 @@
         <v>25</v>
       </c>
       <c r="N4">
-        <v>53.62998959737769</v>
+        <v>53.71147335634279</v>
       </c>
       <c r="O4" t="s">
         <v>26</v>
@@ -657,28 +657,28 @@
         <v>23</v>
       </c>
       <c r="D5">
-        <v>29.01</v>
+        <v>306.73</v>
       </c>
       <c r="E5">
-        <v>60.9</v>
+        <v>51.8</v>
       </c>
       <c r="F5">
-        <v>13.45</v>
+        <v>1.16</v>
       </c>
       <c r="G5">
         <v>50</v>
       </c>
       <c r="H5">
+        <v>66</v>
+      </c>
+      <c r="I5">
         <v>63</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>60</v>
       </c>
-      <c r="J5">
-        <v>83</v>
-      </c>
       <c r="K5">
-        <v>55.1</v>
+        <v>56.3</v>
       </c>
       <c r="L5" t="s">
         <v>24</v>
@@ -687,7 +687,7 @@
         <v>25</v>
       </c>
       <c r="N5">
-        <v>53.62998959737769</v>
+        <v>53.71147335634279</v>
       </c>
       <c r="O5" t="s">
         <v>26</v>

--- a/DECISION/미장_양자_분석.xlsx
+++ b/DECISION/미장_양자_분석.xlsx
@@ -516,13 +516,13 @@
         <v>20</v>
       </c>
       <c r="D2">
-        <v>54.79</v>
+        <v>55.08</v>
       </c>
       <c r="E2">
-        <v>65.3</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="F2">
-        <v>16.82</v>
+        <v>17.44</v>
       </c>
       <c r="G2">
         <v>60</v>
@@ -537,7 +537,7 @@
         <v>63</v>
       </c>
       <c r="K2">
-        <v>58.1</v>
+        <v>58.2</v>
       </c>
       <c r="L2" t="s">
         <v>24</v>
@@ -546,7 +546,7 @@
         <v>25</v>
       </c>
       <c r="N2">
-        <v>53.71147335634279</v>
+        <v>54.02451352198364</v>
       </c>
       <c r="O2" t="s">
         <v>26</v>
@@ -563,13 +563,13 @@
         <v>21</v>
       </c>
       <c r="D3">
-        <v>29.18</v>
+        <v>29.64</v>
       </c>
       <c r="E3">
-        <v>61.3</v>
+        <v>62.3</v>
       </c>
       <c r="F3">
-        <v>14.14</v>
+        <v>15.9</v>
       </c>
       <c r="G3">
         <v>50</v>
@@ -584,7 +584,7 @@
         <v>83</v>
       </c>
       <c r="K3">
-        <v>56.3</v>
+        <v>56.4</v>
       </c>
       <c r="L3" t="s">
         <v>24</v>
@@ -593,7 +593,7 @@
         <v>25</v>
       </c>
       <c r="N3">
-        <v>53.71147335634279</v>
+        <v>54.02451352198364</v>
       </c>
       <c r="O3" t="s">
         <v>26</v>
@@ -610,13 +610,13 @@
         <v>22</v>
       </c>
       <c r="D4">
-        <v>28.33</v>
+        <v>28.51</v>
       </c>
       <c r="E4">
-        <v>65</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="F4">
-        <v>26.44</v>
+        <v>27.21</v>
       </c>
       <c r="G4">
         <v>50</v>
@@ -631,7 +631,7 @@
         <v>76</v>
       </c>
       <c r="K4">
-        <v>56.3</v>
+        <v>56.4</v>
       </c>
       <c r="L4" t="s">
         <v>24</v>
@@ -640,7 +640,7 @@
         <v>25</v>
       </c>
       <c r="N4">
-        <v>53.71147335634279</v>
+        <v>54.02451352198364</v>
       </c>
       <c r="O4" t="s">
         <v>26</v>
@@ -657,13 +657,13 @@
         <v>23</v>
       </c>
       <c r="D5">
-        <v>306.73</v>
+        <v>307.57</v>
       </c>
       <c r="E5">
-        <v>51.8</v>
+        <v>52.5</v>
       </c>
       <c r="F5">
-        <v>1.16</v>
+        <v>1.44</v>
       </c>
       <c r="G5">
         <v>50</v>
@@ -678,7 +678,7 @@
         <v>60</v>
       </c>
       <c r="K5">
-        <v>56.3</v>
+        <v>56.4</v>
       </c>
       <c r="L5" t="s">
         <v>24</v>
@@ -687,7 +687,7 @@
         <v>25</v>
       </c>
       <c r="N5">
-        <v>53.71147335634279</v>
+        <v>54.02451352198364</v>
       </c>
       <c r="O5" t="s">
         <v>26</v>

--- a/DECISION/미장_양자_분석.xlsx
+++ b/DECISION/미장_양자_분석.xlsx
@@ -67,22 +67,22 @@
     <t>IonQ, Inc.</t>
   </si>
   <si>
+    <t>D-Wave Quantum Inc.</t>
+  </si>
+  <si>
     <t>Rigetti Computing, Inc.</t>
   </si>
   <si>
-    <t>D-Wave Quantum Inc.</t>
-  </si>
-  <si>
     <t>International Business Machines</t>
   </si>
   <si>
     <t>IONQ</t>
   </si>
   <si>
+    <t>QBTS</t>
+  </si>
+  <si>
     <t>RGTI</t>
-  </si>
-  <si>
-    <t>QBTS</t>
   </si>
   <si>
     <t>IBM</t>
@@ -516,13 +516,13 @@
         <v>20</v>
       </c>
       <c r="D2">
-        <v>55.08</v>
+        <v>54.76</v>
       </c>
       <c r="E2">
-        <v>65.59999999999999</v>
+        <v>65.3</v>
       </c>
       <c r="F2">
-        <v>17.44</v>
+        <v>16.76</v>
       </c>
       <c r="G2">
         <v>60</v>
@@ -537,7 +537,7 @@
         <v>63</v>
       </c>
       <c r="K2">
-        <v>58.2</v>
+        <v>58.5</v>
       </c>
       <c r="L2" t="s">
         <v>24</v>
@@ -546,7 +546,7 @@
         <v>25</v>
       </c>
       <c r="N2">
-        <v>54.02451352198364</v>
+        <v>54.85170003294819</v>
       </c>
       <c r="O2" t="s">
         <v>26</v>
@@ -563,28 +563,28 @@
         <v>21</v>
       </c>
       <c r="D3">
-        <v>29.64</v>
+        <v>28.73</v>
       </c>
       <c r="E3">
-        <v>62.3</v>
+        <v>65.8</v>
       </c>
       <c r="F3">
-        <v>15.9</v>
+        <v>28.2</v>
       </c>
       <c r="G3">
         <v>50</v>
       </c>
       <c r="H3">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="I3">
         <v>63</v>
       </c>
       <c r="J3">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="K3">
-        <v>56.4</v>
+        <v>56.7</v>
       </c>
       <c r="L3" t="s">
         <v>24</v>
@@ -593,7 +593,7 @@
         <v>25</v>
       </c>
       <c r="N3">
-        <v>54.02451352198364</v>
+        <v>54.85170003294819</v>
       </c>
       <c r="O3" t="s">
         <v>26</v>
@@ -610,28 +610,28 @@
         <v>22</v>
       </c>
       <c r="D4">
-        <v>28.51</v>
+        <v>30.06</v>
       </c>
       <c r="E4">
-        <v>65.40000000000001</v>
+        <v>63.1</v>
       </c>
       <c r="F4">
-        <v>27.21</v>
+        <v>17.56</v>
       </c>
       <c r="G4">
         <v>50</v>
       </c>
       <c r="H4">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="I4">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J4">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="K4">
-        <v>56.4</v>
+        <v>55.5</v>
       </c>
       <c r="L4" t="s">
         <v>24</v>
@@ -640,7 +640,7 @@
         <v>25</v>
       </c>
       <c r="N4">
-        <v>54.02451352198364</v>
+        <v>54.85170003294819</v>
       </c>
       <c r="O4" t="s">
         <v>26</v>
@@ -657,13 +657,13 @@
         <v>23</v>
       </c>
       <c r="D5">
-        <v>307.57</v>
+        <v>307.99</v>
       </c>
       <c r="E5">
-        <v>52.5</v>
+        <v>52.9</v>
       </c>
       <c r="F5">
-        <v>1.44</v>
+        <v>1.58</v>
       </c>
       <c r="G5">
         <v>50</v>
@@ -672,13 +672,13 @@
         <v>66</v>
       </c>
       <c r="I5">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J5">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K5">
-        <v>56.4</v>
+        <v>55.5</v>
       </c>
       <c r="L5" t="s">
         <v>24</v>
@@ -687,7 +687,7 @@
         <v>25</v>
       </c>
       <c r="N5">
-        <v>54.02451352198364</v>
+        <v>54.85170003294819</v>
       </c>
       <c r="O5" t="s">
         <v>26</v>

--- a/DECISION/미장_양자_분석.xlsx
+++ b/DECISION/미장_양자_분석.xlsx
@@ -546,7 +546,7 @@
         <v>25</v>
       </c>
       <c r="N2">
-        <v>54.85170003294819</v>
+        <v>54.86376272656823</v>
       </c>
       <c r="O2" t="s">
         <v>26</v>
@@ -593,7 +593,7 @@
         <v>25</v>
       </c>
       <c r="N3">
-        <v>54.85170003294819</v>
+        <v>54.86376272656823</v>
       </c>
       <c r="O3" t="s">
         <v>26</v>
@@ -640,7 +640,7 @@
         <v>25</v>
       </c>
       <c r="N4">
-        <v>54.85170003294819</v>
+        <v>54.86376272656823</v>
       </c>
       <c r="O4" t="s">
         <v>26</v>
@@ -687,7 +687,7 @@
         <v>25</v>
       </c>
       <c r="N5">
-        <v>54.85170003294819</v>
+        <v>54.86376272656823</v>
       </c>
       <c r="O5" t="s">
         <v>26</v>

--- a/DECISION/미장_양자_분석.xlsx
+++ b/DECISION/미장_양자_분석.xlsx
@@ -546,7 +546,7 @@
         <v>25</v>
       </c>
       <c r="N2">
-        <v>54.86376272656823</v>
+        <v>54.84087454262382</v>
       </c>
       <c r="O2" t="s">
         <v>26</v>
@@ -593,7 +593,7 @@
         <v>25</v>
       </c>
       <c r="N3">
-        <v>54.86376272656823</v>
+        <v>54.84087454262382</v>
       </c>
       <c r="O3" t="s">
         <v>26</v>
@@ -640,7 +640,7 @@
         <v>25</v>
       </c>
       <c r="N4">
-        <v>54.86376272656823</v>
+        <v>54.84087454262382</v>
       </c>
       <c r="O4" t="s">
         <v>26</v>
@@ -687,7 +687,7 @@
         <v>25</v>
       </c>
       <c r="N5">
-        <v>54.86376272656823</v>
+        <v>54.84087454262382</v>
       </c>
       <c r="O5" t="s">
         <v>26</v>

--- a/DECISION/미장_양자_분석.xlsx
+++ b/DECISION/미장_양자_분석.xlsx
@@ -537,7 +537,7 @@
         <v>63</v>
       </c>
       <c r="K2">
-        <v>58.5</v>
+        <v>58.4</v>
       </c>
       <c r="L2" t="s">
         <v>24</v>
@@ -546,7 +546,7 @@
         <v>25</v>
       </c>
       <c r="N2">
-        <v>54.84087454262382</v>
+        <v>54.82400714602223</v>
       </c>
       <c r="O2" t="s">
         <v>26</v>
@@ -584,7 +584,7 @@
         <v>76</v>
       </c>
       <c r="K3">
-        <v>56.7</v>
+        <v>56.6</v>
       </c>
       <c r="L3" t="s">
         <v>24</v>
@@ -593,7 +593,7 @@
         <v>25</v>
       </c>
       <c r="N3">
-        <v>54.84087454262382</v>
+        <v>54.82400714602223</v>
       </c>
       <c r="O3" t="s">
         <v>26</v>
@@ -631,7 +631,7 @@
         <v>86</v>
       </c>
       <c r="K4">
-        <v>55.5</v>
+        <v>55.4</v>
       </c>
       <c r="L4" t="s">
         <v>24</v>
@@ -640,7 +640,7 @@
         <v>25</v>
       </c>
       <c r="N4">
-        <v>54.84087454262382</v>
+        <v>54.82400714602223</v>
       </c>
       <c r="O4" t="s">
         <v>26</v>
@@ -678,7 +678,7 @@
         <v>56</v>
       </c>
       <c r="K5">
-        <v>55.5</v>
+        <v>55.4</v>
       </c>
       <c r="L5" t="s">
         <v>24</v>
@@ -687,7 +687,7 @@
         <v>25</v>
       </c>
       <c r="N5">
-        <v>54.84087454262382</v>
+        <v>54.82400714602223</v>
       </c>
       <c r="O5" t="s">
         <v>26</v>

--- a/DECISION/미장_양자_분석.xlsx
+++ b/DECISION/미장_양자_분석.xlsx
@@ -537,7 +537,7 @@
         <v>63</v>
       </c>
       <c r="K2">
-        <v>58.4</v>
+        <v>58.5</v>
       </c>
       <c r="L2" t="s">
         <v>24</v>
@@ -546,7 +546,7 @@
         <v>25</v>
       </c>
       <c r="N2">
-        <v>54.82400714602223</v>
+        <v>54.83846622768671</v>
       </c>
       <c r="O2" t="s">
         <v>26</v>
@@ -584,7 +584,7 @@
         <v>76</v>
       </c>
       <c r="K3">
-        <v>56.6</v>
+        <v>56.7</v>
       </c>
       <c r="L3" t="s">
         <v>24</v>
@@ -593,7 +593,7 @@
         <v>25</v>
       </c>
       <c r="N3">
-        <v>54.82400714602223</v>
+        <v>54.83846622768671</v>
       </c>
       <c r="O3" t="s">
         <v>26</v>
@@ -631,7 +631,7 @@
         <v>86</v>
       </c>
       <c r="K4">
-        <v>55.4</v>
+        <v>55.5</v>
       </c>
       <c r="L4" t="s">
         <v>24</v>
@@ -640,7 +640,7 @@
         <v>25</v>
       </c>
       <c r="N4">
-        <v>54.82400714602223</v>
+        <v>54.83846622768671</v>
       </c>
       <c r="O4" t="s">
         <v>26</v>
@@ -678,7 +678,7 @@
         <v>56</v>
       </c>
       <c r="K5">
-        <v>55.4</v>
+        <v>55.5</v>
       </c>
       <c r="L5" t="s">
         <v>24</v>
@@ -687,7 +687,7 @@
         <v>25</v>
       </c>
       <c r="N5">
-        <v>54.82400714602223</v>
+        <v>54.83846622768671</v>
       </c>
       <c r="O5" t="s">
         <v>26</v>

--- a/DECISION/미장_양자_분석.xlsx
+++ b/DECISION/미장_양자_분석.xlsx
@@ -537,7 +537,7 @@
         <v>63</v>
       </c>
       <c r="K2">
-        <v>58.5</v>
+        <v>58.4</v>
       </c>
       <c r="L2" t="s">
         <v>24</v>
@@ -546,7 +546,7 @@
         <v>25</v>
       </c>
       <c r="N2">
-        <v>54.83846622768671</v>
+        <v>54.77309453746771</v>
       </c>
       <c r="O2" t="s">
         <v>26</v>
@@ -584,7 +584,7 @@
         <v>76</v>
       </c>
       <c r="K3">
-        <v>56.7</v>
+        <v>56.6</v>
       </c>
       <c r="L3" t="s">
         <v>24</v>
@@ -593,7 +593,7 @@
         <v>25</v>
       </c>
       <c r="N3">
-        <v>54.83846622768671</v>
+        <v>54.77309453746771</v>
       </c>
       <c r="O3" t="s">
         <v>26</v>
@@ -631,7 +631,7 @@
         <v>86</v>
       </c>
       <c r="K4">
-        <v>55.5</v>
+        <v>55.4</v>
       </c>
       <c r="L4" t="s">
         <v>24</v>
@@ -640,7 +640,7 @@
         <v>25</v>
       </c>
       <c r="N4">
-        <v>54.83846622768671</v>
+        <v>54.77309453746771</v>
       </c>
       <c r="O4" t="s">
         <v>26</v>
@@ -678,7 +678,7 @@
         <v>56</v>
       </c>
       <c r="K5">
-        <v>55.5</v>
+        <v>55.4</v>
       </c>
       <c r="L5" t="s">
         <v>24</v>
@@ -687,7 +687,7 @@
         <v>25</v>
       </c>
       <c r="N5">
-        <v>54.83846622768671</v>
+        <v>54.77309453746771</v>
       </c>
       <c r="O5" t="s">
         <v>26</v>

--- a/DECISION/미장_양자_분석.xlsx
+++ b/DECISION/미장_양자_분석.xlsx
@@ -537,7 +537,7 @@
         <v>63</v>
       </c>
       <c r="K2">
-        <v>58.4</v>
+        <v>57.5</v>
       </c>
       <c r="L2" t="s">
         <v>24</v>
@@ -546,7 +546,7 @@
         <v>25</v>
       </c>
       <c r="N2">
-        <v>54.77309453746771</v>
+        <v>51.53902399942638</v>
       </c>
       <c r="O2" t="s">
         <v>26</v>
@@ -584,7 +584,7 @@
         <v>76</v>
       </c>
       <c r="K3">
-        <v>56.6</v>
+        <v>55.7</v>
       </c>
       <c r="L3" t="s">
         <v>24</v>
@@ -593,7 +593,7 @@
         <v>25</v>
       </c>
       <c r="N3">
-        <v>54.77309453746771</v>
+        <v>51.53902399942638</v>
       </c>
       <c r="O3" t="s">
         <v>26</v>
@@ -631,7 +631,7 @@
         <v>86</v>
       </c>
       <c r="K4">
-        <v>55.4</v>
+        <v>54.5</v>
       </c>
       <c r="L4" t="s">
         <v>24</v>
@@ -640,7 +640,7 @@
         <v>25</v>
       </c>
       <c r="N4">
-        <v>54.77309453746771</v>
+        <v>51.53902399942638</v>
       </c>
       <c r="O4" t="s">
         <v>26</v>
@@ -678,7 +678,7 @@
         <v>56</v>
       </c>
       <c r="K5">
-        <v>55.4</v>
+        <v>54.5</v>
       </c>
       <c r="L5" t="s">
         <v>24</v>
@@ -687,7 +687,7 @@
         <v>25</v>
       </c>
       <c r="N5">
-        <v>54.77309453746771</v>
+        <v>51.53902399942638</v>
       </c>
       <c r="O5" t="s">
         <v>26</v>

--- a/DECISION/미장_양자_분석.xlsx
+++ b/DECISION/미장_양자_분석.xlsx
@@ -537,7 +537,7 @@
         <v>63</v>
       </c>
       <c r="K2">
-        <v>57.5</v>
+        <v>57.3</v>
       </c>
       <c r="L2" t="s">
         <v>24</v>
@@ -546,7 +546,7 @@
         <v>25</v>
       </c>
       <c r="N2">
-        <v>51.53902399942638</v>
+        <v>51.15965480231979</v>
       </c>
       <c r="O2" t="s">
         <v>26</v>
@@ -584,7 +584,7 @@
         <v>76</v>
       </c>
       <c r="K3">
-        <v>55.7</v>
+        <v>55.5</v>
       </c>
       <c r="L3" t="s">
         <v>24</v>
@@ -593,7 +593,7 @@
         <v>25</v>
       </c>
       <c r="N3">
-        <v>51.53902399942638</v>
+        <v>51.15965480231979</v>
       </c>
       <c r="O3" t="s">
         <v>26</v>
@@ -631,7 +631,7 @@
         <v>86</v>
       </c>
       <c r="K4">
-        <v>54.5</v>
+        <v>54.3</v>
       </c>
       <c r="L4" t="s">
         <v>24</v>
@@ -640,7 +640,7 @@
         <v>25</v>
       </c>
       <c r="N4">
-        <v>51.53902399942638</v>
+        <v>51.15965480231979</v>
       </c>
       <c r="O4" t="s">
         <v>26</v>
@@ -678,7 +678,7 @@
         <v>56</v>
       </c>
       <c r="K5">
-        <v>54.5</v>
+        <v>54.3</v>
       </c>
       <c r="L5" t="s">
         <v>24</v>
@@ -687,7 +687,7 @@
         <v>25</v>
       </c>
       <c r="N5">
-        <v>51.53902399942638</v>
+        <v>51.15965480231979</v>
       </c>
       <c r="O5" t="s">
         <v>26</v>

--- a/DECISION/미장_양자_분석.xlsx
+++ b/DECISION/미장_양자_분석.xlsx
@@ -546,7 +546,7 @@
         <v>25</v>
       </c>
       <c r="N2">
-        <v>51.15965480231979</v>
+        <v>51.05762969290213</v>
       </c>
       <c r="O2" t="s">
         <v>26</v>
@@ -593,7 +593,7 @@
         <v>25</v>
       </c>
       <c r="N3">
-        <v>51.15965480231979</v>
+        <v>51.05762969290213</v>
       </c>
       <c r="O3" t="s">
         <v>26</v>
@@ -640,7 +640,7 @@
         <v>25</v>
       </c>
       <c r="N4">
-        <v>51.15965480231979</v>
+        <v>51.05762969290213</v>
       </c>
       <c r="O4" t="s">
         <v>26</v>
@@ -687,7 +687,7 @@
         <v>25</v>
       </c>
       <c r="N5">
-        <v>51.15965480231979</v>
+        <v>51.05762969290213</v>
       </c>
       <c r="O5" t="s">
         <v>26</v>

--- a/DECISION/미장_양자_분석.xlsx
+++ b/DECISION/미장_양자_분석.xlsx
@@ -61,31 +61,31 @@
     <t>MACRO_SIGNAL</t>
   </si>
   <si>
-    <t>2025-12-05</t>
+    <t>2025-12-06</t>
+  </si>
+  <si>
+    <t>International Business Machines</t>
+  </si>
+  <si>
+    <t>D-Wave Quantum Inc.</t>
   </si>
   <si>
     <t>IonQ, Inc.</t>
   </si>
   <si>
-    <t>D-Wave Quantum Inc.</t>
-  </si>
-  <si>
     <t>Rigetti Computing, Inc.</t>
   </si>
   <si>
-    <t>International Business Machines</t>
+    <t>IBM</t>
+  </si>
+  <si>
+    <t>QBTS</t>
   </si>
   <si>
     <t>IONQ</t>
   </si>
   <si>
-    <t>QBTS</t>
-  </si>
-  <si>
     <t>RGTI</t>
-  </si>
-  <si>
-    <t>IBM</t>
   </si>
   <si>
     <t>Pattern</t>
@@ -516,13 +516,13 @@
         <v>20</v>
       </c>
       <c r="D2">
-        <v>54.76</v>
+        <v>310.76</v>
       </c>
       <c r="E2">
-        <v>65.3</v>
+        <v>54.6</v>
       </c>
       <c r="F2">
-        <v>16.76</v>
+        <v>0.71</v>
       </c>
       <c r="G2">
         <v>60</v>
@@ -531,13 +531,13 @@
         <v>60</v>
       </c>
       <c r="I2">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="J2">
         <v>63</v>
       </c>
       <c r="K2">
-        <v>57.3</v>
+        <v>59.9</v>
       </c>
       <c r="L2" t="s">
         <v>24</v>
@@ -546,7 +546,7 @@
         <v>25</v>
       </c>
       <c r="N2">
-        <v>51.05762969290213</v>
+        <v>51.54219175917372</v>
       </c>
       <c r="O2" t="s">
         <v>26</v>
@@ -563,28 +563,28 @@
         <v>21</v>
       </c>
       <c r="D3">
-        <v>28.73</v>
+        <v>27.85</v>
       </c>
       <c r="E3">
-        <v>65.8</v>
+        <v>62.1</v>
       </c>
       <c r="F3">
-        <v>28.2</v>
+        <v>22.85</v>
       </c>
       <c r="G3">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H3">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="I3">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J3">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="K3">
-        <v>55.5</v>
+        <v>59.9</v>
       </c>
       <c r="L3" t="s">
         <v>24</v>
@@ -593,7 +593,7 @@
         <v>25</v>
       </c>
       <c r="N3">
-        <v>51.05762969290213</v>
+        <v>51.54219175917372</v>
       </c>
       <c r="O3" t="s">
         <v>26</v>
@@ -610,28 +610,28 @@
         <v>22</v>
       </c>
       <c r="D4">
-        <v>30.06</v>
+        <v>53.08</v>
       </c>
       <c r="E4">
-        <v>63.1</v>
+        <v>59.7</v>
       </c>
       <c r="F4">
-        <v>17.56</v>
+        <v>7.67</v>
       </c>
       <c r="G4">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H4">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="I4">
         <v>60</v>
       </c>
       <c r="J4">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="K4">
-        <v>54.3</v>
+        <v>57.5</v>
       </c>
       <c r="L4" t="s">
         <v>24</v>
@@ -640,7 +640,7 @@
         <v>25</v>
       </c>
       <c r="N4">
-        <v>51.05762969290213</v>
+        <v>51.54219175917372</v>
       </c>
       <c r="O4" t="s">
         <v>26</v>
@@ -657,28 +657,28 @@
         <v>23</v>
       </c>
       <c r="D5">
-        <v>307.99</v>
+        <v>28.7</v>
       </c>
       <c r="E5">
-        <v>52.9</v>
+        <v>58.2</v>
       </c>
       <c r="F5">
-        <v>1.58</v>
+        <v>12.26</v>
       </c>
       <c r="G5">
         <v>50</v>
       </c>
       <c r="H5">
+        <v>60</v>
+      </c>
+      <c r="I5">
         <v>66</v>
       </c>
-      <c r="I5">
-        <v>60</v>
-      </c>
       <c r="J5">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="K5">
-        <v>54.3</v>
+        <v>56.9</v>
       </c>
       <c r="L5" t="s">
         <v>24</v>
@@ -687,7 +687,7 @@
         <v>25</v>
       </c>
       <c r="N5">
-        <v>51.05762969290213</v>
+        <v>51.54219175917372</v>
       </c>
       <c r="O5" t="s">
         <v>26</v>

--- a/DECISION/미장_양자_분석.xlsx
+++ b/DECISION/미장_양자_분석.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
   <si>
     <t>날짜</t>
   </si>
@@ -64,24 +64,24 @@
     <t>2025-12-06</t>
   </si>
   <si>
+    <t>D-Wave Quantum Inc.</t>
+  </si>
+  <si>
     <t>International Business Machines</t>
   </si>
   <si>
-    <t>D-Wave Quantum Inc.</t>
-  </si>
-  <si>
     <t>IonQ, Inc.</t>
   </si>
   <si>
     <t>Rigetti Computing, Inc.</t>
   </si>
   <si>
+    <t>QBTS</t>
+  </si>
+  <si>
     <t>IBM</t>
   </si>
   <si>
-    <t>QBTS</t>
-  </si>
-  <si>
     <t>IONQ</t>
   </si>
   <si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>Pattern</t>
+  </si>
+  <si>
+    <t>📈 매수 관찰 구간입니다.</t>
   </si>
   <si>
     <t>⛔ 관망하십시오.</t>
@@ -516,28 +519,28 @@
         <v>20</v>
       </c>
       <c r="D2">
-        <v>310.76</v>
+        <v>27.11</v>
       </c>
       <c r="E2">
-        <v>54.6</v>
+        <v>59.6</v>
       </c>
       <c r="F2">
-        <v>0.71</v>
+        <v>19.59</v>
       </c>
       <c r="G2">
         <v>60</v>
       </c>
       <c r="H2">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="I2">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J2">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="K2">
-        <v>59.9</v>
+        <v>61.2</v>
       </c>
       <c r="L2" t="s">
         <v>24</v>
@@ -546,10 +549,10 @@
         <v>25</v>
       </c>
       <c r="N2">
-        <v>51.54219175917372</v>
+        <v>50.60178744571824</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -563,40 +566,40 @@
         <v>21</v>
       </c>
       <c r="D3">
-        <v>27.85</v>
+        <v>308.82</v>
       </c>
       <c r="E3">
-        <v>62.1</v>
+        <v>52.9</v>
       </c>
       <c r="F3">
-        <v>22.85</v>
+        <v>0.08</v>
       </c>
       <c r="G3">
         <v>60</v>
       </c>
       <c r="H3">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="I3">
         <v>66</v>
       </c>
       <c r="J3">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="K3">
-        <v>59.9</v>
+        <v>59.6</v>
       </c>
       <c r="L3" t="s">
         <v>24</v>
       </c>
       <c r="M3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N3">
-        <v>51.54219175917372</v>
+        <v>50.60178744571824</v>
       </c>
       <c r="O3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -610,13 +613,13 @@
         <v>22</v>
       </c>
       <c r="D4">
-        <v>53.08</v>
+        <v>52.06</v>
       </c>
       <c r="E4">
-        <v>59.7</v>
+        <v>57.7</v>
       </c>
       <c r="F4">
-        <v>7.67</v>
+        <v>5.59</v>
       </c>
       <c r="G4">
         <v>60</v>
@@ -631,19 +634,19 @@
         <v>70</v>
       </c>
       <c r="K4">
-        <v>57.5</v>
+        <v>57.2</v>
       </c>
       <c r="L4" t="s">
         <v>24</v>
       </c>
       <c r="M4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N4">
-        <v>51.54219175917372</v>
+        <v>50.60178744571824</v>
       </c>
       <c r="O4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -657,13 +660,13 @@
         <v>23</v>
       </c>
       <c r="D5">
-        <v>28.7</v>
+        <v>28.07</v>
       </c>
       <c r="E5">
-        <v>58.2</v>
+        <v>56.4</v>
       </c>
       <c r="F5">
-        <v>12.26</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="G5">
         <v>50</v>
@@ -678,19 +681,19 @@
         <v>83</v>
       </c>
       <c r="K5">
-        <v>56.9</v>
+        <v>56.6</v>
       </c>
       <c r="L5" t="s">
         <v>24</v>
       </c>
       <c r="M5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N5">
-        <v>51.54219175917372</v>
+        <v>50.60178744571824</v>
       </c>
       <c r="O5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/DECISION/미장_양자_분석.xlsx
+++ b/DECISION/미장_양자_분석.xlsx
@@ -67,25 +67,25 @@
     <t>D-Wave Quantum Inc.</t>
   </si>
   <si>
+    <t>IonQ, Inc.</t>
+  </si>
+  <si>
+    <t>Rigetti Computing, Inc.</t>
+  </si>
+  <si>
     <t>International Business Machines</t>
   </si>
   <si>
-    <t>IonQ, Inc.</t>
-  </si>
-  <si>
-    <t>Rigetti Computing, Inc.</t>
-  </si>
-  <si>
     <t>QBTS</t>
   </si>
   <si>
+    <t>IONQ</t>
+  </si>
+  <si>
+    <t>RGTI</t>
+  </si>
+  <si>
     <t>IBM</t>
-  </si>
-  <si>
-    <t>IONQ</t>
-  </si>
-  <si>
-    <t>RGTI</t>
   </si>
   <si>
     <t>Pattern</t>
@@ -519,13 +519,13 @@
         <v>20</v>
       </c>
       <c r="D2">
-        <v>27.11</v>
+        <v>27.09</v>
       </c>
       <c r="E2">
-        <v>59.6</v>
+        <v>59.5</v>
       </c>
       <c r="F2">
-        <v>19.59</v>
+        <v>19.5</v>
       </c>
       <c r="G2">
         <v>60</v>
@@ -549,7 +549,7 @@
         <v>25</v>
       </c>
       <c r="N2">
-        <v>50.60178744571824</v>
+        <v>50.68470204858703</v>
       </c>
       <c r="O2" t="s">
         <v>27</v>
@@ -566,28 +566,28 @@
         <v>21</v>
       </c>
       <c r="D3">
-        <v>308.82</v>
+        <v>52.01</v>
       </c>
       <c r="E3">
-        <v>52.9</v>
+        <v>57.6</v>
       </c>
       <c r="F3">
-        <v>0.08</v>
+        <v>5.5</v>
       </c>
       <c r="G3">
         <v>60</v>
       </c>
       <c r="H3">
+        <v>53</v>
+      </c>
+      <c r="I3">
         <v>60</v>
       </c>
-      <c r="I3">
-        <v>66</v>
-      </c>
       <c r="J3">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="K3">
-        <v>59.6</v>
+        <v>57.2</v>
       </c>
       <c r="L3" t="s">
         <v>24</v>
@@ -596,7 +596,7 @@
         <v>26</v>
       </c>
       <c r="N3">
-        <v>50.60178744571824</v>
+        <v>50.68470204858703</v>
       </c>
       <c r="O3" t="s">
         <v>27</v>
@@ -613,28 +613,28 @@
         <v>22</v>
       </c>
       <c r="D4">
-        <v>52.06</v>
+        <v>28.06</v>
       </c>
       <c r="E4">
-        <v>57.7</v>
+        <v>56.4</v>
       </c>
       <c r="F4">
-        <v>5.59</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="G4">
+        <v>50</v>
+      </c>
+      <c r="H4">
         <v>60</v>
       </c>
-      <c r="H4">
-        <v>56</v>
-      </c>
       <c r="I4">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="J4">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="K4">
-        <v>57.2</v>
+        <v>56.6</v>
       </c>
       <c r="L4" t="s">
         <v>24</v>
@@ -643,7 +643,7 @@
         <v>26</v>
       </c>
       <c r="N4">
-        <v>50.60178744571824</v>
+        <v>50.68470204858703</v>
       </c>
       <c r="O4" t="s">
         <v>27</v>
@@ -660,16 +660,16 @@
         <v>23</v>
       </c>
       <c r="D5">
-        <v>28.07</v>
+        <v>308.48</v>
       </c>
       <c r="E5">
-        <v>56.4</v>
+        <v>52.6</v>
       </c>
       <c r="F5">
-        <v>9.779999999999999</v>
+        <v>-0.03</v>
       </c>
       <c r="G5">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H5">
         <v>60</v>
@@ -678,10 +678,10 @@
         <v>66</v>
       </c>
       <c r="J5">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="K5">
-        <v>56.6</v>
+        <v>53.6</v>
       </c>
       <c r="L5" t="s">
         <v>24</v>
@@ -690,7 +690,7 @@
         <v>26</v>
       </c>
       <c r="N5">
-        <v>50.60178744571824</v>
+        <v>50.68470204858703</v>
       </c>
       <c r="O5" t="s">
         <v>27</v>

--- a/DECISION/미장_양자_분석.xlsx
+++ b/DECISION/미장_양자_분석.xlsx
@@ -519,13 +519,13 @@
         <v>20</v>
       </c>
       <c r="D2">
-        <v>27.09</v>
+        <v>27.07</v>
       </c>
       <c r="E2">
         <v>59.5</v>
       </c>
       <c r="F2">
-        <v>19.5</v>
+        <v>19.41</v>
       </c>
       <c r="G2">
         <v>60</v>
@@ -540,7 +540,7 @@
         <v>83</v>
       </c>
       <c r="K2">
-        <v>61.2</v>
+        <v>60.7</v>
       </c>
       <c r="L2" t="s">
         <v>24</v>
@@ -549,7 +549,7 @@
         <v>25</v>
       </c>
       <c r="N2">
-        <v>50.68470204858703</v>
+        <v>49.16024380385575</v>
       </c>
       <c r="O2" t="s">
         <v>27</v>
@@ -566,13 +566,13 @@
         <v>21</v>
       </c>
       <c r="D3">
-        <v>52.01</v>
+        <v>51.75</v>
       </c>
       <c r="E3">
-        <v>57.6</v>
+        <v>57.2</v>
       </c>
       <c r="F3">
-        <v>5.5</v>
+        <v>4.97</v>
       </c>
       <c r="G3">
         <v>60</v>
@@ -587,7 +587,7 @@
         <v>70</v>
       </c>
       <c r="K3">
-        <v>57.2</v>
+        <v>56.7</v>
       </c>
       <c r="L3" t="s">
         <v>24</v>
@@ -596,7 +596,7 @@
         <v>26</v>
       </c>
       <c r="N3">
-        <v>50.68470204858703</v>
+        <v>49.16024380385575</v>
       </c>
       <c r="O3" t="s">
         <v>27</v>
@@ -613,13 +613,13 @@
         <v>22</v>
       </c>
       <c r="D4">
-        <v>28.06</v>
+        <v>28.08</v>
       </c>
       <c r="E4">
         <v>56.4</v>
       </c>
       <c r="F4">
-        <v>9.720000000000001</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="G4">
         <v>50</v>
@@ -634,7 +634,7 @@
         <v>83</v>
       </c>
       <c r="K4">
-        <v>56.6</v>
+        <v>56.1</v>
       </c>
       <c r="L4" t="s">
         <v>24</v>
@@ -643,7 +643,7 @@
         <v>26</v>
       </c>
       <c r="N4">
-        <v>50.68470204858703</v>
+        <v>49.16024380385575</v>
       </c>
       <c r="O4" t="s">
         <v>27</v>
@@ -660,16 +660,16 @@
         <v>23</v>
       </c>
       <c r="D5">
-        <v>308.48</v>
+        <v>308.79</v>
       </c>
       <c r="E5">
-        <v>52.6</v>
+        <v>52.9</v>
       </c>
       <c r="F5">
-        <v>-0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G5">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H5">
         <v>60</v>
@@ -681,7 +681,7 @@
         <v>63</v>
       </c>
       <c r="K5">
-        <v>53.6</v>
+        <v>56.1</v>
       </c>
       <c r="L5" t="s">
         <v>24</v>
@@ -690,7 +690,7 @@
         <v>26</v>
       </c>
       <c r="N5">
-        <v>50.68470204858703</v>
+        <v>49.16024380385575</v>
       </c>
       <c r="O5" t="s">
         <v>27</v>

--- a/DECISION/미장_양자_분석.xlsx
+++ b/DECISION/미장_양자_분석.xlsx
@@ -519,13 +519,13 @@
         <v>20</v>
       </c>
       <c r="D2">
-        <v>27.07</v>
+        <v>27</v>
       </c>
       <c r="E2">
-        <v>59.5</v>
+        <v>59.2</v>
       </c>
       <c r="F2">
-        <v>19.41</v>
+        <v>19.1</v>
       </c>
       <c r="G2">
         <v>60</v>
@@ -540,7 +540,7 @@
         <v>83</v>
       </c>
       <c r="K2">
-        <v>60.7</v>
+        <v>61.7</v>
       </c>
       <c r="L2" t="s">
         <v>24</v>
@@ -549,7 +549,7 @@
         <v>25</v>
       </c>
       <c r="N2">
-        <v>49.16024380385575</v>
+        <v>52.28493729186943</v>
       </c>
       <c r="O2" t="s">
         <v>27</v>
@@ -566,19 +566,19 @@
         <v>21</v>
       </c>
       <c r="D3">
-        <v>51.75</v>
+        <v>52.69</v>
       </c>
       <c r="E3">
-        <v>57.2</v>
+        <v>58.9</v>
       </c>
       <c r="F3">
-        <v>4.97</v>
+        <v>6.88</v>
       </c>
       <c r="G3">
         <v>60</v>
       </c>
       <c r="H3">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I3">
         <v>60</v>
@@ -587,7 +587,7 @@
         <v>70</v>
       </c>
       <c r="K3">
-        <v>56.7</v>
+        <v>57.7</v>
       </c>
       <c r="L3" t="s">
         <v>24</v>
@@ -596,7 +596,7 @@
         <v>26</v>
       </c>
       <c r="N3">
-        <v>49.16024380385575</v>
+        <v>52.28493729186943</v>
       </c>
       <c r="O3" t="s">
         <v>27</v>
@@ -613,13 +613,13 @@
         <v>22</v>
       </c>
       <c r="D4">
-        <v>28.08</v>
+        <v>28.11</v>
       </c>
       <c r="E4">
-        <v>56.4</v>
+        <v>56.5</v>
       </c>
       <c r="F4">
-        <v>9.800000000000001</v>
+        <v>9.93</v>
       </c>
       <c r="G4">
         <v>50</v>
@@ -634,7 +634,7 @@
         <v>83</v>
       </c>
       <c r="K4">
-        <v>56.1</v>
+        <v>57.1</v>
       </c>
       <c r="L4" t="s">
         <v>24</v>
@@ -643,7 +643,7 @@
         <v>26</v>
       </c>
       <c r="N4">
-        <v>49.16024380385575</v>
+        <v>52.28493729186943</v>
       </c>
       <c r="O4" t="s">
         <v>27</v>
@@ -660,16 +660,16 @@
         <v>23</v>
       </c>
       <c r="D5">
-        <v>308.79</v>
+        <v>307.94</v>
       </c>
       <c r="E5">
-        <v>52.9</v>
+        <v>52.1</v>
       </c>
       <c r="F5">
-        <v>0.07000000000000001</v>
+        <v>-0.21</v>
       </c>
       <c r="G5">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H5">
         <v>60</v>
@@ -681,7 +681,7 @@
         <v>63</v>
       </c>
       <c r="K5">
-        <v>56.1</v>
+        <v>54.1</v>
       </c>
       <c r="L5" t="s">
         <v>24</v>
@@ -690,7 +690,7 @@
         <v>26</v>
       </c>
       <c r="N5">
-        <v>49.16024380385575</v>
+        <v>52.28493729186943</v>
       </c>
       <c r="O5" t="s">
         <v>27</v>
